--- a/output/pubmed-pymed.xlsx
+++ b/output/pubmed-pymed.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\pubmed\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
   <si>
     <t>fullname</t>
   </si>
@@ -40,6 +45,9 @@
     <t>authors</t>
   </si>
   <si>
+    <t>affiliations</t>
+  </si>
+  <si>
     <t>methods</t>
   </si>
   <si>
@@ -55,9 +63,6 @@
     <t>doi</t>
   </si>
   <si>
-    <t>xml</t>
-  </si>
-  <si>
     <t>Danilov Gleb</t>
   </si>
   <si>
@@ -76,25 +81,7 @@
     <t>30096505</t>
   </si>
   <si>
-    <t>30083313
-18171185
-11716632
-27408261
-4014115
-28078082
-26719795
-18538699
-21422331
-25991140
-19348593
-21146207
-18596451
-19243317
-22377387
-17540265
-18068815
-10737441
-16652311</t>
+    <t>30083313; 18171185; 11716632; 27408261; 4014115; 28078082; 26719795; 18538699; 21422331; 25991140; 19348593; 21146207; 18596451; 19243317; 22377387; 17540265; 18068815; 10737441; 16652311</t>
   </si>
   <si>
     <t>29968664</t>
@@ -184,34 +171,31 @@
     <t xml:space="preserve">Data collected in electronic patient records (EPR) databases may be used for different goals besides their direct purpose - information support for medical staff in their everyday activities. One of the most promising spheres is a monitoring of various processes induced in medical facility. In our studies EPR serves as a basis for healthcare associated infections (HAI) surveillance system at neurosurgical intensive care unit. The results of HAI prospective surveillance using EPR are presented and discussed. </t>
   </si>
   <si>
-    <t>['Adverse Events', 'Electronic Health Records', 'Natural Language Processing', 'Neurosurgery']</t>
-  </si>
-  <si>
-    <t>['Cerebrospinal fluid leakage', 'Children', 'Craniotomy', 'Dural sealant', 'Posterior fossa', 'Pseudomeningocele']</t>
-  </si>
-  <si>
-    <t>['Deep Learning', 'Electronic Health Records', 'Neurosurgery', 'Operative Report', 'Recurrent Neuronal Networks']</t>
-  </si>
-  <si>
-    <t>['Cerebral aqueduct', 'Headache', 'Magnetic resonance imaging', 'Neurosurgery', 'Pineal cyst']</t>
-  </si>
-  <si>
-    <t>['Education', 'N. N. Burdenko Neurosurgery Center', 'N. N. Burdenko Neurosurgery Institute', 'Neurosurgery history', 'Russian neurosurgery']</t>
-  </si>
-  <si>
-    <t>['Cross infection', 'Drug resistance', 'Infection control', 'Intensive care unit', 'Survival analysis']</t>
-  </si>
-  <si>
-    <t>['Digital transformation', 'clinical decision making', 'diagnostic games', 'simulation']</t>
-  </si>
-  <si>
-    <t>['Arachnoid suturing', 'CSF leak', 'Pseudomeningocele', 'Suboccipital']</t>
-  </si>
-  <si>
-    <t>['Bacterial', 'Cross infection', 'Infection control', 'Intensive care unit', 'Machine learning', 'Meningitis', 'Risk factors']</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>Adverse Events; Electronic Health Records; Natural Language Processing; Neurosurgery</t>
+  </si>
+  <si>
+    <t>Cerebrospinal fluid leakage; Children; Craniotomy; Dural sealant; Posterior fossa; Pseudomeningocele</t>
+  </si>
+  <si>
+    <t>Deep Learning; Electronic Health Records; Neurosurgery; Operative Report; Recurrent Neuronal Networks</t>
+  </si>
+  <si>
+    <t>Cerebral aqueduct; Headache; Magnetic resonance imaging; Neurosurgery; Pineal cyst</t>
+  </si>
+  <si>
+    <t>Education; N. N. Burdenko Neurosurgery Center; N. N. Burdenko Neurosurgery Institute; Neurosurgery history; Russian neurosurgery</t>
+  </si>
+  <si>
+    <t>Cross infection; Drug resistance; Infection control; Intensive care unit; Survival analysis</t>
+  </si>
+  <si>
+    <t>Digital transformation; clinical decision making; diagnostic games; simulation</t>
+  </si>
+  <si>
+    <t>Arachnoid suturing; CSF leak; Pseudomeningocele; Suboccipital</t>
+  </si>
+  <si>
+    <t>Bacterial; Cross infection; Infection control; Intensive care unit; Machine learning; Meningitis; Risk factors</t>
   </si>
   <si>
     <t>Studies in health technology and informatics</t>
@@ -229,34 +213,66 @@
     <t>Journal of critical care</t>
   </si>
   <si>
-    <t>[{'lastname': 'Danilov', 'firstname': 'Gleb', 'initials': 'G', 'affiliation': 'National Medical Research Center for Neurosurgery named after N.N. Burdenko, Moscow, RussianFederation.'}, {'lastname': 'Shifrin', 'firstname': 'Michael', 'initials': 'M', 'affiliation': 'National Medical Research Center for Neurosurgery named after N.N. Burdenko, Moscow, RussianFederation.'}, {'lastname': 'Strunina', 'firstname': 'Uliya', 'initials': 'U', 'affiliation': 'National Medical Research Center for Neurosurgery named after N.N. Burdenko, Moscow, RussianFederation.'}, {'lastname': 'Pronkina', 'firstname': 'Tatyana', 'initials': 'T', 'affiliation': 'National Medical Research Center for Neurosurgery named after N.N. Burdenko, Moscow, RussianFederation.'}, {'lastname': 'Potapov', 'firstname': 'Alexander', 'initials': 'A', 'affiliation': 'National Medical Research Center for Neurosurgery named after N.N. Burdenko, Moscow, RussianFederation.'}]</t>
-  </si>
-  <si>
-    <t>[{'lastname': 'Kushel', 'firstname': 'Yury', 'initials': 'Y', 'affiliation': '2nd Neurosurgical Department, Burdenko Neurosurgical Institute, Moscow, Russia. Electronic address: kuszel@yandex.ru.'}, {'lastname': 'Danilov', 'firstname': 'Gleb', 'initials': 'G', 'affiliation': 'Administration, Burdenko Neurosurgical Institute, Moscow, Russia.'}, {'lastname': 'Tekoev', 'firstname': 'Aslan', 'initials': 'A', 'affiliation': '2nd Neurosurgical Department, Burdenko Neurosurgical Institute, Moscow, Russia.'}, {'lastname': 'Cheldiev', 'firstname': 'Batraz', 'initials': 'B', 'affiliation': '2nd Neurosurgical Department, Burdenko Neurosurgical Institute, Moscow, Russia.'}, {'lastname': 'Strunina', 'firstname': 'Yulia', 'initials': 'Y', 'affiliation': 'Laboratory of Biomedical Informatics, Burdenko Neurosurgical Institute, Moscow, Russia.'}]</t>
-  </si>
-  <si>
-    <t>[{'lastname': 'Danilov', 'firstname': 'Gleb', 'initials': 'G', 'affiliation': 'National Medical Research Center for Neurosurgery named after N.N. Burdenko, Moscow, Russian Federation.'}, {'lastname': 'Kotik', 'firstname': 'Konstantin', 'initials': 'K', 'affiliation': 'Lomonosov Moscow State University, Moscow, Russian Federation.'}, {'lastname': 'Shifrin', 'firstname': 'Michael', 'initials': 'M', 'affiliation': 'National Medical Research Center for Neurosurgery named after N.N. Burdenko, Moscow, Russian Federation.'}, {'lastname': 'Strunina', 'firstname': 'Uliya', 'initials': 'U', 'affiliation': 'National Medical Research Center for Neurosurgery named after N.N. Burdenko, Moscow, Russian Federation.'}, {'lastname': 'Pronkina', 'firstname': 'Tatyana', 'initials': 'T', 'affiliation': 'National Medical Research Center for Neurosurgery named after N.N. Burdenko, Moscow, Russian Federation.'}, {'lastname': 'Potapov', 'firstname': 'Alexander', 'initials': 'A', 'affiliation': 'National Medical Research Center for Neurosurgery named after N.N. Burdenko, Moscow, Russian Federation.'}]</t>
-  </si>
-  <si>
-    <t>[{'lastname': 'Pitskhelauri', 'firstname': 'David I', 'initials': 'DI', 'affiliation': 'Department of Neurooncology, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.'}, {'lastname': 'Konovalov', 'firstname': 'Alexander N', 'initials': 'AN', 'affiliation': 'Department of Neurooncology, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.'}, {'lastname': 'Abramov', 'firstname': 'Irakliy T', 'initials': 'IT', 'affiliation': 'Department of Neurooncology, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia. Electronic address: irakliyabramov@gmail.com.'}, {'lastname': 'Danilov', 'firstname': 'Gleb V', 'initials': 'GV', 'affiliation': 'Department of Neurooncology, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.'}, {'lastname': 'Pronin', 'firstname': 'Igor N', 'initials': 'IN', 'affiliation': 'Department of Neuroradiology, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.'}, {'lastname': 'Alexandrova', 'firstname': 'Evgeniya V', 'initials': 'EV', 'affiliation': 'Department of Neurology, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.'}, {'lastname': 'Serova', 'firstname': 'Nataliya K', 'initials': 'NK', 'affiliation': 'Department of Neuroopththalmology, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.'}, {'lastname': 'Sanikidze', 'firstname': 'Alexander Z', 'initials': 'AZ', 'affiliation': 'Department of Neurooncology, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.'}]</t>
-  </si>
-  <si>
-    <t>[{'lastname': 'Potapov', 'firstname': 'Alexander', 'initials': 'A', 'affiliation': 'Federal State Autonomous Institution N. N. Burdenko National Medical Research Center of Neurosurgery of the Ministry of Health of the Russian Federation, Moscow, Russian Federation.'}, {'lastname': 'Likhterman', 'firstname': 'Leonid', 'initials': 'L', 'affiliation': 'Federal State Autonomous Institution N. N. Burdenko National Medical Research Center of Neurosurgery of the Ministry of Health of the Russian Federation, Moscow, Russian Federation.'}, {'lastname': 'Danilov', 'firstname': 'Gleb', 'initials': 'G', 'affiliation': 'Federal State Autonomous Institution N. N. Burdenko National Medical Research Center of Neurosurgery of the Ministry of Health of the Russian Federation, Moscow, Russian Federation. Electronic address: gdanilov@nsi.ru.'}]</t>
-  </si>
-  <si>
-    <t>[{'lastname': 'Ershova', 'firstname': 'Ksenia', 'initials': 'K', 'affiliation': '1Center for Data-Intensive Biotechnology and Biomedicine, Skolkovo Institute of Science and Technology, Moscow, Russia.'}, {'lastname': 'Savin', 'firstname': 'Ivan', 'initials': 'I', 'affiliation': 'Department of Intensive Care, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.'}, {'lastname': 'Kurdyumova', 'firstname': 'Nataliya', 'initials': 'N', 'affiliation': 'Department of Intensive Care, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.'}, {'lastname': 'Wong', 'firstname': 'Darren', 'initials': 'D', 'affiliation': '3Division of Infectious Diseases, Keck School of Medicine, University of Southern California, Los Angeles, USA.'}, {'lastname': 'Danilov', 'firstname': 'Gleb', 'initials': 'G', 'affiliation': 'Laboratory of Biomedical Informatics, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.'}, {'lastname': 'Shifrin', 'firstname': 'Michael', 'initials': 'M', 'affiliation': 'IT Department, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.'}, {'lastname': 'Alexandrova', 'firstname': 'Irina', 'initials': 'I', 'affiliation': 'Department of Microbiology, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.'}, {'lastname': 'Sokolova', 'firstname': 'Ekaterina', 'initials': 'E', 'affiliation': 'Department of Intensive Care, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.'}, {'lastname': 'Fursova', 'firstname': 'Nadezhda', 'initials': 'N', 'affiliation': 'Federal Budget Institution of Science "State Research Center for Applied Microbiology &amp; Biotechnology" (SRCAMB), Moscow, Russia.'}, {'lastname': 'Zelman', 'firstname': 'Vladimir', 'initials': 'V', 'affiliation': '1Center for Data-Intensive Biotechnology and Biomedicine, Skolkovo Institute of Science and Technology, Moscow, Russia.\n8Department of Anesthesiology, Keck School of Medicine, University of Southern California, Los Angeles, USA.'}, {'lastname': 'Ershova', 'firstname': 'Olga', 'initials': 'O', 'affiliation': 'Department of Epidemiology and Infection Control, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.'}]</t>
-  </si>
-  <si>
-    <t>[{'lastname': 'Shifrin', 'firstname': 'Michael', 'initials': 'M', 'affiliation': 'N.N. Burdenko National Medical Research Centre of Neurosurgery, Moscow, Russia.'}, {'lastname': 'Danilov', 'firstname': 'Gleb', 'initials': 'G', 'affiliation': 'N.N. Burdenko National Medical Research Centre of Neurosurgery, Moscow, Russia.'}, {'lastname': 'Shklovskiy-Kordi', 'firstname': 'Nikita', 'initials': 'N', 'affiliation': 'National Center for Hematology, Moscow, Russia.'}, {'lastname': 'Zingerman', 'firstname': 'Boris', 'initials': 'B', 'affiliation': 'National Center for Hematology, Moscow, Russia.'}]</t>
-  </si>
-  <si>
-    <t>[{'lastname': 'Pitskhelauri', 'firstname': 'David', 'initials': 'D', 'affiliation': 'Burdenko Neurosurgery Center, Department of Neuro-oncology, Moscow, Russia. davidpneuro@gmail.com.'}, {'lastname': 'Kudieva', 'firstname': 'Elina', 'initials': 'E', 'affiliation': 'Burdenko Neurosurgery Center, Department of Neuro-oncology, Moscow, Russia.'}, {'lastname': 'Moshchev', 'firstname': 'Dmitrii', 'initials': 'D', 'affiliation': 'Burdenko Neurosurgery Center, Department of Anesthesiology and Intensive care, Moscow, Russia.'}, {'lastname': 'Ananev', 'firstname': 'Evgeny', 'initials': 'E', 'affiliation': 'Burdenko Neurosurgery Center, Department of Anesthesiology and Intensive care, Moscow, Russia.'}, {'lastname': 'Shifrin', 'firstname': 'Michail', 'initials': 'M', 'affiliation': 'Burdenko Neurosurgery Center, Department of Information Technology, Moscow, Russia.'}, {'lastname': 'Danilov', 'firstname': 'Gleb', 'initials': 'G', 'affiliation': 'Burdenko Neurosurgery Center, Department of Information Technology, Moscow, Russia.\nBurdenko Neurosurgery Center, Scientific Secretariat, Moscow, Russia.'}, {'lastname': 'Melnikova-Pitskhelauri', 'firstname': 'Tatiana', 'initials': 'T', 'affiliation': 'Burdenko Neurosurgery Center, Department of Neuroradiology, Moscow, Russia.'}, {'lastname': 'Kachkov', 'firstname': 'Igor', 'initials': 'I', 'affiliation': 'Moscow Regional Research and Clinical Institute, Department of Neurosurgery, Moscow, Russia.'}, {'lastname': 'Bykanov', 'firstname': 'Andrey', 'initials': 'A', 'affiliation': 'Burdenko Neurosurgery Center, Department of Neuro-oncology, Moscow, Russia.'}, {'lastname': 'Sanikidze', 'firstname': 'Alexander', 'initials': 'A', 'affiliation': 'Burdenko Neurosurgery Center, Department of Neuro-oncology, Moscow, Russia.'}]</t>
-  </si>
-  <si>
-    <t>[{'lastname': 'Savin', 'firstname': 'Ivan', 'initials': 'I', 'affiliation': 'Burdenko Neurosurgery Institute, 16 4th Tverskaya-Yamskaya Street, Moscow 125047, Russia.'}, {'lastname': 'Ershova', 'firstname': 'Ksenia', 'initials': 'K', 'affiliation': 'Skolkovo Institute of Science and Technology, Skolkovo Innovation Center, Building 3, Moscow 143026, Russia; Department of Anesthesiology, Keck School of Medicine, University of Southern California, 1975 Zonal Ave, Los Angeles, CA 90033, USA. Electronic address: ksenia.ershova@skolkovotech.ru.'}, {'lastname': 'Kurdyumova', 'firstname': 'Nataliya', 'initials': 'N', 'affiliation': 'Burdenko Neurosurgery Institute, 16 4th Tverskaya-Yamskaya Street, Moscow 125047, Russia.'}, {'lastname': 'Ershova', 'firstname': 'Olga', 'initials': 'O', 'affiliation': 'Burdenko Neurosurgery Institute, 16 4th Tverskaya-Yamskaya Street, Moscow 125047, Russia.'}, {'lastname': 'Khomenko', 'firstname': 'Oleg', 'initials': 'O', 'affiliation': 'Skolkovo Institute of Science and Technology, Skolkovo Innovation Center, Building 3, Moscow 143026, Russia.'}, {'lastname': 'Danilov', 'firstname': 'Gleb', 'initials': 'G', 'affiliation': 'Burdenko Neurosurgery Institute, 16 4th Tverskaya-Yamskaya Street, Moscow 125047, Russia.'}, {'lastname': 'Shifrin', 'firstname': 'Michael', 'initials': 'M', 'affiliation': 'Burdenko Neurosurgery Institute, 16 4th Tverskaya-Yamskaya Street, Moscow 125047, Russia.'}, {'lastname': 'Zelman', 'firstname': 'Vladimir', 'initials': 'V', 'affiliation': 'Skolkovo Institute of Science and Technology, Skolkovo Innovation Center, Building 3, Moscow 143026, Russia; Department of Anesthesiology, Keck School of Medicine, University of Southern California, 1975 Zonal Ave, Los Angeles, CA 90033, USA.'}]</t>
-  </si>
-  <si>
-    <t>[{'lastname': 'Shifrin', 'firstname': 'Michael', 'initials': 'M', 'affiliation': 'N. N. Burdenko Neurosurgery Institute, Moscow, Russia.'}, {'lastname': 'Kurdumova', 'firstname': 'Natalia', 'initials': 'N', 'affiliation': 'N. N. Burdenko Neurosurgery Institute, Moscow, Russia.'}, {'lastname': 'Danilov', 'firstname': 'Gleb', 'initials': 'G', 'affiliation': 'N. N. Burdenko Neurosurgery Institute, Moscow, Russia.'}, {'lastname': 'Ershova', 'firstname': 'Olga', 'initials': 'O', 'affiliation': 'N. N. Burdenko Neurosurgery Institute, Moscow, Russia.'}, {'lastname': 'Savin', 'firstname': 'Ivan', 'initials': 'I', 'affiliation': 'N. N. Burdenko Neurosurgery Institute, Moscow, Russia.'}, {'lastname': 'Alexandrova', 'firstname': 'Irina', 'initials': 'I', 'affiliation': 'N. N. Burdenko Neurosurgery Institute, Moscow, Russia.'}, {'lastname': 'Sokolova', 'firstname': 'Ekaterina', 'initials': 'E', 'affiliation': 'N. N. Burdenko Neurosurgery Institute, Moscow, Russia.'}, {'lastname': 'Tabasaranskiy', 'firstname': 'Togrul', 'initials': 'T', 'affiliation': 'N. N. Burdenko Neurosurgery Institute, Moscow, Russia.'}]</t>
+    <t>Danilov Gleb; Shifrin Michael; Strunina Uliya; Pronkina Tatyana; Potapov Alexander</t>
+  </si>
+  <si>
+    <t>Kushel Yury; Danilov Gleb; Tekoev Aslan; Cheldiev Batraz; Strunina Yulia</t>
+  </si>
+  <si>
+    <t>Danilov Gleb; Kotik Konstantin; Shifrin Michael; Strunina Uliya; Pronkina Tatyana; Potapov Alexander</t>
+  </si>
+  <si>
+    <t>Pitskhelauri David I; Konovalov Alexander N; Abramov Irakliy T; Danilov Gleb V; Pronin Igor N; Alexandrova Evgeniya V; Serova Nataliya K; Sanikidze Alexander Z</t>
+  </si>
+  <si>
+    <t>Potapov Alexander; Likhterman Leonid; Danilov Gleb</t>
+  </si>
+  <si>
+    <t>Ershova Ksenia; Savin Ivan; Kurdyumova Nataliya; Wong Darren; Danilov Gleb; Shifrin Michael; Alexandrova Irina; Sokolova Ekaterina; Fursova Nadezhda; Zelman Vladimir; Ershova Olga</t>
+  </si>
+  <si>
+    <t>Shifrin Michael; Danilov Gleb; Shklovskiy-Kordi Nikita; Zingerman Boris</t>
+  </si>
+  <si>
+    <t>Pitskhelauri David; Kudieva Elina; Moshchev Dmitrii; Ananev Evgeny; Shifrin Michail; Danilov Gleb; Melnikova-Pitskhelauri Tatiana; Kachkov Igor; Bykanov Andrey; Sanikidze Alexander</t>
+  </si>
+  <si>
+    <t>Savin Ivan; Ershova Ksenia; Kurdyumova Nataliya; Ershova Olga; Khomenko Oleg; Danilov Gleb; Shifrin Michael; Zelman Vladimir</t>
+  </si>
+  <si>
+    <t>Shifrin Michael; Kurdumova Natalia; Danilov Gleb; Ershova Olga; Savin Ivan; Alexandrova Irina; Sokolova Ekaterina; Tabasaranskiy Togrul</t>
+  </si>
+  <si>
+    <t>National Medical Research Center for Neurosurgery named after N.N. Burdenko, Moscow, RussianFederation.; National Medical Research Center for Neurosurgery named after N.N. Burdenko, Moscow, RussianFederation.; National Medical Research Center for Neurosurgery named after N.N. Burdenko, Moscow, RussianFederation.; National Medical Research Center for Neurosurgery named after N.N. Burdenko, Moscow, RussianFederation.; National Medical Research Center for Neurosurgery named after N.N. Burdenko, Moscow, RussianFederation.</t>
+  </si>
+  <si>
+    <t>2nd Neurosurgical Department, Burdenko Neurosurgical Institute, Moscow, Russia. Electronic address: kuszel@yandex.ru.; Administration, Burdenko Neurosurgical Institute, Moscow, Russia.; 2nd Neurosurgical Department, Burdenko Neurosurgical Institute, Moscow, Russia.; 2nd Neurosurgical Department, Burdenko Neurosurgical Institute, Moscow, Russia.; Laboratory of Biomedical Informatics, Burdenko Neurosurgical Institute, Moscow, Russia.</t>
+  </si>
+  <si>
+    <t>National Medical Research Center for Neurosurgery named after N.N. Burdenko, Moscow, Russian Federation.; Lomonosov Moscow State University, Moscow, Russian Federation.; National Medical Research Center for Neurosurgery named after N.N. Burdenko, Moscow, Russian Federation.; National Medical Research Center for Neurosurgery named after N.N. Burdenko, Moscow, Russian Federation.; National Medical Research Center for Neurosurgery named after N.N. Burdenko, Moscow, Russian Federation.; National Medical Research Center for Neurosurgery named after N.N. Burdenko, Moscow, Russian Federation.</t>
+  </si>
+  <si>
+    <t>Department of Neurooncology, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.; Department of Neurooncology, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.; Department of Neurooncology, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia. Electronic address: irakliyabramov@gmail.com.; Department of Neurooncology, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.; Department of Neuroradiology, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.; Department of Neurology, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.; Department of Neuroopththalmology, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.; Department of Neurooncology, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.</t>
+  </si>
+  <si>
+    <t>Federal State Autonomous Institution N. N. Burdenko National Medical Research Center of Neurosurgery of the Ministry of Health of the Russian Federation, Moscow, Russian Federation.; Federal State Autonomous Institution N. N. Burdenko National Medical Research Center of Neurosurgery of the Ministry of Health of the Russian Federation, Moscow, Russian Federation.; Federal State Autonomous Institution N. N. Burdenko National Medical Research Center of Neurosurgery of the Ministry of Health of the Russian Federation, Moscow, Russian Federation. Electronic address: gdanilov@nsi.ru.</t>
+  </si>
+  <si>
+    <t>1Center for Data-Intensive Biotechnology and Biomedicine, Skolkovo Institute of Science and Technology, Moscow, Russia.; Department of Intensive Care, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.; Department of Intensive Care, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.; 3Division of Infectious Diseases, Keck School of Medicine, University of Southern California, Los Angeles, USA.; Laboratory of Biomedical Informatics, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.; IT Department, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.; Department of Microbiology, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.; Department of Intensive Care, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.; Federal Budget Institution of Science "State Research Center for Applied Microbiology &amp; Biotechnology" (SRCAMB), Moscow, Russia.; 1Center for Data-Intensive Biotechnology and Biomedicine, Skolkovo Institute of Science and Technology, Moscow, Russia.
+8Department of Anesthesiology, Keck School of Medicine, University of Southern California, Los Angeles, USA.; Department of Epidemiology and Infection Control, Burdenko National Medical Research Center of Neurosurgery, Moscow, Russia.</t>
+  </si>
+  <si>
+    <t>N.N. Burdenko National Medical Research Centre of Neurosurgery, Moscow, Russia.; N.N. Burdenko National Medical Research Centre of Neurosurgery, Moscow, Russia.; National Center for Hematology, Moscow, Russia.; National Center for Hematology, Moscow, Russia.</t>
+  </si>
+  <si>
+    <t>Burdenko Neurosurgery Center, Department of Neuro-oncology, Moscow, Russia. davidpneuro@gmail.com.; Burdenko Neurosurgery Center, Department of Neuro-oncology, Moscow, Russia.; Burdenko Neurosurgery Center, Department of Anesthesiology and Intensive care, Moscow, Russia.; Burdenko Neurosurgery Center, Department of Anesthesiology and Intensive care, Moscow, Russia.; Burdenko Neurosurgery Center, Department of Information Technology, Moscow, Russia.; Burdenko Neurosurgery Center, Department of Information Technology, Moscow, Russia.
+Burdenko Neurosurgery Center, Scientific Secretariat, Moscow, Russia.; Burdenko Neurosurgery Center, Department of Neuroradiology, Moscow, Russia.; Moscow Regional Research and Clinical Institute, Department of Neurosurgery, Moscow, Russia.; Burdenko Neurosurgery Center, Department of Neuro-oncology, Moscow, Russia.; Burdenko Neurosurgery Center, Department of Neuro-oncology, Moscow, Russia.</t>
+  </si>
+  <si>
+    <t>Burdenko Neurosurgery Institute, 16 4th Tverskaya-Yamskaya Street, Moscow 125047, Russia.; Skolkovo Institute of Science and Technology, Skolkovo Innovation Center, Building 3, Moscow 143026, Russia; Department of Anesthesiology, Keck School of Medicine, University of Southern California, 1975 Zonal Ave, Los Angeles, CA 90033, USA. Electronic address: ksenia.ershova@skolkovotech.ru.; Burdenko Neurosurgery Institute, 16 4th Tverskaya-Yamskaya Street, Moscow 125047, Russia.; Burdenko Neurosurgery Institute, 16 4th Tverskaya-Yamskaya Street, Moscow 125047, Russia.; Skolkovo Institute of Science and Technology, Skolkovo Innovation Center, Building 3, Moscow 143026, Russia.; Burdenko Neurosurgery Institute, 16 4th Tverskaya-Yamskaya Street, Moscow 125047, Russia.; Burdenko Neurosurgery Institute, 16 4th Tverskaya-Yamskaya Street, Moscow 125047, Russia.; Skolkovo Institute of Science and Technology, Skolkovo Innovation Center, Building 3, Moscow 143026, Russia; Department of Anesthesiology, Keck School of Medicine, University of Southern California, 1975 Zonal Ave, Los Angeles, CA 90033, USA.</t>
+  </si>
+  <si>
+    <t>N. N. Burdenko Neurosurgery Institute, Moscow, Russia.; N. N. Burdenko Neurosurgery Institute, Moscow, Russia.; N. N. Burdenko Neurosurgery Institute, Moscow, Russia.; N. N. Burdenko Neurosurgery Institute, Moscow, Russia.; N. N. Burdenko Neurosurgery Institute, Moscow, Russia.; N. N. Burdenko Neurosurgery Institute, Moscow, Russia.; N. N. Burdenko Neurosurgery Institute, Moscow, Russia.; N. N. Burdenko Neurosurgery Institute, Moscow, Russia.</t>
   </si>
   <si>
     <t>The results indicate a statistically significant relationship between the changes in the CAq morphometrics and the clinical outcome in postoperative period. Surgical removal of symptomatic pineal cysts in patients without hydrocephalus can be considered as an effective treatment. However, a thorough preoperative examination and patient selection should be conducted in every case.</t>
@@ -305,46 +321,16 @@
   </si>
   <si>
     <t>10.1016/j.jcrc.2018.01.022</t>
-  </si>
-  <si>
-    <t>&lt;Element 'PubmedArticle' at 0x000002168F096188&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Element 'PubmedArticle' at 0x000002168EEDF4A8&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Element 'PubmedArticle' at 0x000002168F33D958&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Element 'PubmedArticle' at 0x000002168EE47458&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Element 'PubmedArticle' at 0x000002168F0855E8&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Element 'PubmedArticle' at 0x000002169BBBB1D8&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Element 'PubmedArticle' at 0x0000021697323868&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Element 'PubmedArticle' at 0x000002169731AA98&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Element 'PubmedArticle' at 0x000002169731C228&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Element 'PubmedArticle' at 0x000002169D6774F8&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,25 +382,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -452,9 +447,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,9 +481,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,9 +516,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -695,427 +692,446 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="105" customWidth="1"/>
+    <col min="4" max="4" width="76.140625" customWidth="1"/>
+    <col min="5" max="5" width="97.28515625" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="92.7109375" customWidth="1"/>
+    <col min="9" max="9" width="74.85546875" customWidth="1"/>
+    <col min="10" max="10" width="48.42578125" customWidth="1"/>
+    <col min="11" max="11" width="45.85546875" customWidth="1"/>
+    <col min="12" max="12" width="44.140625" customWidth="1"/>
+    <col min="13" max="13" width="70" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="3">
+        <v>43674</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="2">
-        <v>43674</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G3" s="3">
+        <v>43609</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="3">
+        <v>43559</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="3">
+        <v>43428</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O2" t="s">
+      <c r="L5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="N5" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="3">
+        <v>43323</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="2">
-        <v>43609</v>
-      </c>
-      <c r="I3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="G7" s="3">
+        <v>43320</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="3">
+        <v>43285</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="3">
+        <v>43180</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N3" t="s">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="3">
+        <v>43139</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O3" t="s">
-        <v>87</v>
+      <c r="L10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="2">
-        <v>43559</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="2">
-        <v>43428</v>
-      </c>
-      <c r="I5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" t="s">
-        <v>77</v>
-      </c>
-      <c r="N5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="2">
-        <v>43323</v>
-      </c>
-      <c r="I6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="3">
+        <v>42145</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="2">
-        <v>43320</v>
-      </c>
-      <c r="I7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="2">
-        <v>43285</v>
-      </c>
-      <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="O8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="2">
-        <v>43180</v>
-      </c>
-      <c r="I9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" t="s">
-        <v>74</v>
-      </c>
-      <c r="N9" t="s">
-        <v>84</v>
-      </c>
-      <c r="O9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="2">
-        <v>43139</v>
-      </c>
-      <c r="I10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" t="s">
-        <v>71</v>
-      </c>
-      <c r="L10" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="2">
-        <v>42145</v>
-      </c>
-      <c r="I11" t="s">
-        <v>69</v>
-      </c>
-      <c r="O11" t="s">
-        <v>95</v>
-      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
